--- a/biology/Écologie/Eugene_Odum/Eugene_Odum.xlsx
+++ b/biology/Écologie/Eugene_Odum/Eugene_Odum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eugene Odum, né le 17 septembre 1913 et mort le 10 août 2002, est un écologue américain, pionnier de l'étude écologique des écosystèmes.
 </t>
@@ -511,11 +523,13 @@
           <t>Vie et travaux</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils du sociologue Howard W. Odum, et frère d'Howard T. Odum, E.P. Odum reconnaît l'influence de la pensée holistique de son père sur ses propres travaux. Il a étudié au département de zoologie à l'université d'Illinois, à Urbana Champaign. Il y obtient son doctorat. Il a un fils, William et est marié à Martha.
-Après son diplôme, Odum enseigne à l'université de Géorgie, dès 1940[1]. Il s'intéresse à l'écologie, considérée comme non scientifique alors parmi les universitaires. Odum contribue à diffuser le concept d'écosystème, attribué tantôt à Raymond Lindeman (1942), tantôt aux Britanniques Arthur Roy Clapham (1930) et Arthur Tansley[2] (1935). L'étude systémique d'organismes dans leur environnement était encore parcellaire, et pratiquée comme une branche mineure de la biologie.
-Avec son frère Howard, encore étudiant à Yale, il écrit le premier véritable manuel d'écologie, Fundamentals of Ecology (1953) : ils y développent le concept d'interaction. En 1969, il propose le concept d'agroécosystème, défini comme un « écosystème domestiqué[3]. »
+Après son diplôme, Odum enseigne à l'université de Géorgie, dès 1940. Il s'intéresse à l'écologie, considérée comme non scientifique alors parmi les universitaires. Odum contribue à diffuser le concept d'écosystème, attribué tantôt à Raymond Lindeman (1942), tantôt aux Britanniques Arthur Roy Clapham (1930) et Arthur Tansley (1935). L'étude systémique d'organismes dans leur environnement était encore parcellaire, et pratiquée comme une branche mineure de la biologie.
+Avec son frère Howard, encore étudiant à Yale, il écrit le premier véritable manuel d'écologie, Fundamentals of Ecology (1953) : ils y développent le concept d'interaction. En 1969, il propose le concept d'agroécosystème, défini comme un « écosystème domestiqué. »
 </t>
         </is>
       </c>
